--- a/VariableHam.xlsx
+++ b/VariableHam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d387a32e050d08c7/Universitetet/8. semester/Projekt/Oil-Price-Forecasting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\Skole\8. semester\Projekt\Oil-Price-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD4C3AC-86A2-47D2-9F7F-2BCFFB541C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABC37A-D548-427C-8F52-9E1799D4C8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
+    <workbookView xWindow="-5250" yWindow="2445" windowWidth="21600" windowHeight="11400" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Hamilton</t>
+  </si>
+  <si>
+    <t>HamiltonOECD</t>
   </si>
 </sst>
 </file>
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,23 +421,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BEDCC-FC3C-4C4F-8566-63C0BD59BBDB}">
-  <dimension ref="A1:J553"/>
+  <dimension ref="A1:K555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I535" sqref="I535"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.15625" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" customWidth="1"/>
-    <col min="5" max="5" width="15.41796875" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="8" width="13.83984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +468,11 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26665</v>
       </c>
@@ -496,8 +503,11 @@
       <c r="J2">
         <v>18.316191508109501</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2">
+        <v>12.939461570120102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26696</v>
       </c>
@@ -528,8 +538,11 @@
       <c r="J3">
         <v>58.748597682836397</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3">
+        <v>14.68764101227589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26724</v>
       </c>
@@ -560,8 +573,11 @@
       <c r="J4">
         <v>63.0287215427185</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4">
+        <v>15.383528391586424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26755</v>
       </c>
@@ -592,8 +608,11 @@
       <c r="J5">
         <v>71.987153452572201</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5">
+        <v>14.923767633354828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26785</v>
       </c>
@@ -624,8 +643,11 @@
       <c r="J6">
         <v>64.295813952282799</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6">
+        <v>16.238491350494883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26816</v>
       </c>
@@ -656,8 +678,11 @@
       <c r="J7">
         <v>100.95955922388301</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7">
+        <v>15.730252428526285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26846</v>
       </c>
@@ -688,8 +713,11 @@
       <c r="J8">
         <v>93.9421615402767</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8">
+        <v>15.334767620507989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26877</v>
       </c>
@@ -720,8 +748,11 @@
       <c r="J9">
         <v>80.858619680633396</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9">
+        <v>16.707182130897024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26908</v>
       </c>
@@ -752,8 +783,11 @@
       <c r="J10">
         <v>103.124730954166</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10">
+        <v>15.911853095373374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26938</v>
       </c>
@@ -784,8 +818,11 @@
       <c r="J11">
         <v>132.484452598502</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11">
+        <v>15.931486372673362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26969</v>
       </c>
@@ -816,8 +853,11 @@
       <c r="J12">
         <v>137.65925880179199</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12">
+        <v>16.153320561642545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26999</v>
       </c>
@@ -848,8 +888,11 @@
       <c r="J13">
         <v>154.08916534073799</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13">
+        <v>15.720867755335121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27030</v>
       </c>
@@ -880,8 +923,11 @@
       <c r="J14">
         <v>121.43795012870601</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14">
+        <v>14.581085122957518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27061</v>
       </c>
@@ -912,8 +958,11 @@
       <c r="J15">
         <v>128.55245903621901</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15">
+        <v>14.591974311996353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27089</v>
       </c>
@@ -944,8 +993,11 @@
       <c r="J16">
         <v>141.110205627596</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16">
+        <v>12.900582595392734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>27120</v>
       </c>
@@ -976,8 +1028,11 @@
       <c r="J17">
         <v>128.065577107114</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17">
+        <v>11.467545729466224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27150</v>
       </c>
@@ -1008,8 +1063,11 @@
       <c r="J18">
         <v>118.463401472603</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18">
+        <v>11.909752303705943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27181</v>
       </c>
@@ -1040,8 +1098,11 @@
       <c r="J19">
         <v>137.34384844772501</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19">
+        <v>11.153132343801133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27211</v>
       </c>
@@ -1072,8 +1133,11 @@
       <c r="J20">
         <v>125.64259580623001</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20">
+        <v>10.298926862432438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>27242</v>
       </c>
@@ -1104,8 +1168,11 @@
       <c r="J21">
         <v>122.626718874985</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21">
+        <v>8.9706158293303702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27273</v>
       </c>
@@ -1136,8 +1203,11 @@
       <c r="J22">
         <v>98.686989187680794</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22">
+        <v>7.0980289088836344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>27303</v>
       </c>
@@ -1168,8 +1238,11 @@
       <c r="J23">
         <v>74.288850019091299</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23">
+        <v>4.5877718233752489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27334</v>
       </c>
@@ -1200,8 +1273,11 @@
       <c r="J24">
         <v>88.630616619508402</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24">
+        <v>1.715968935453418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27364</v>
       </c>
@@ -1232,8 +1308,11 @@
       <c r="J25">
         <v>93.730642043500495</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25">
+        <v>-3.4598431587070309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27395</v>
       </c>
@@ -1264,8 +1343,11 @@
       <c r="J26">
         <v>16.054593501009499</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26">
+        <v>-4.4116559181439925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27426</v>
       </c>
@@ -1296,8 +1378,11 @@
       <c r="J27">
         <v>6.0891347714039599</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27">
+        <v>-6.4607651558140446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27454</v>
       </c>
@@ -1328,8 +1413,11 @@
       <c r="J28">
         <v>-21.2058079072985</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28">
+        <v>-7.8525072835632841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27485</v>
       </c>
@@ -1360,8 +1448,11 @@
       <c r="J29">
         <v>-32.249416834628597</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29">
+        <v>-7.8168478241461798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27515</v>
       </c>
@@ -1392,8 +1483,11 @@
       <c r="J30">
         <v>-62.143690791121998</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30">
+        <v>-9.6887358351725084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27546</v>
       </c>
@@ -1424,8 +1518,11 @@
       <c r="J31">
         <v>-58.360215840782701</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31">
+        <v>-9.251505078006744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27576</v>
       </c>
@@ -1456,8 +1553,11 @@
       <c r="J32">
         <v>-43.8340267430982</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32">
+        <v>-9.0263186859352231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27607</v>
       </c>
@@ -1488,8 +1588,11 @@
       <c r="J33">
         <v>-57.2277940266287</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K33">
+        <v>-9.5825164506911165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27638</v>
       </c>
@@ -1520,8 +1623,11 @@
       <c r="J34">
         <v>-55.471654617937297</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34">
+        <v>-8.9125869886648275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>27668</v>
       </c>
@@ -1552,8 +1658,11 @@
       <c r="J35">
         <v>-82.609429982777499</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35">
+        <v>-8.3156441151134572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>27699</v>
       </c>
@@ -1584,8 +1693,11 @@
       <c r="J36">
         <v>-101.270500054111</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36">
+        <v>-8.232479185559157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>27729</v>
       </c>
@@ -1616,8 +1728,11 @@
       <c r="J37">
         <v>-123.606102112633</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37">
+        <v>-7.3013066751901761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>27760</v>
       </c>
@@ -1648,8 +1763,11 @@
       <c r="J38">
         <v>-100.803965967983</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38">
+        <v>-6.402812562253871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>27791</v>
       </c>
@@ -1680,8 +1798,11 @@
       <c r="J39">
         <v>-117.336229831219</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K39">
+        <v>-4.8679339485881314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27820</v>
       </c>
@@ -1712,8 +1833,11 @@
       <c r="J40">
         <v>-106.000993682925</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40">
+        <v>-4.4909424705008973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>27851</v>
       </c>
@@ -1744,8 +1868,11 @@
       <c r="J41">
         <v>-97.303193007685906</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K41">
+        <v>-3.3723634959033575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27881</v>
       </c>
@@ -1776,8 +1903,11 @@
       <c r="J42">
         <v>-86.623631948283901</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K42">
+        <v>-2.8943261506685189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27912</v>
       </c>
@@ -1808,8 +1938,11 @@
       <c r="J43">
         <v>-72.918890528789305</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K43">
+        <v>-2.6171070237913909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>27942</v>
       </c>
@@ -1840,8 +1973,11 @@
       <c r="J44">
         <v>-92.051769709591696</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K44">
+        <v>-1.2080563486290998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>27973</v>
       </c>
@@ -1872,8 +2008,11 @@
       <c r="J45">
         <v>-81.616914076958594</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K45">
+        <v>-0.96926973444720943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>28004</v>
       </c>
@@ -1904,8 +2043,11 @@
       <c r="J46">
         <v>-80.587878863553001</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K46">
+        <v>1.2000666125244948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>28034</v>
       </c>
@@ -1936,8 +2078,11 @@
       <c r="J47">
         <v>-62.357515539295399</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K47">
+        <v>2.3431331070676151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>28065</v>
       </c>
@@ -1968,8 +2113,11 @@
       <c r="J48">
         <v>-76.638692404944194</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K48">
+        <v>5.3004664702921218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>28095</v>
       </c>
@@ -2000,8 +2148,11 @@
       <c r="J49">
         <v>-82.341049485744804</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K49">
+        <v>8.5955870295387058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>28126</v>
       </c>
@@ -2032,8 +2183,11 @@
       <c r="J50">
         <v>-34.127921717868801</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50">
+        <v>10.252505891488624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>28157</v>
       </c>
@@ -2064,8 +2218,11 @@
       <c r="J51">
         <v>-40.983264034112501</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K51">
+        <v>11.357071652752893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>28185</v>
       </c>
@@ -2096,8 +2253,11 @@
       <c r="J52">
         <v>-23.546003729709799</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K52">
+        <v>12.723902414936902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>28216</v>
       </c>
@@ -2128,8 +2288,11 @@
       <c r="J53">
         <v>-6.1161915852920901</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K53">
+        <v>12.632722226939507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>28246</v>
       </c>
@@ -2160,8 +2323,11 @@
       <c r="J54">
         <v>19.157827646213399</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54">
+        <v>13.628409604632168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>28277</v>
       </c>
@@ -2192,8 +2358,11 @@
       <c r="J55">
         <v>-2.1688569088598202</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K55">
+        <v>12.886128394800494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>28307</v>
       </c>
@@ -2224,8 +2393,11 @@
       <c r="J56">
         <v>-4.8067618826948397</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K56">
+        <v>12.26578690027776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28338</v>
       </c>
@@ -2256,8 +2428,11 @@
       <c r="J57">
         <v>-52.659992466608301</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K57">
+        <v>12.467833867673676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>28369</v>
       </c>
@@ -2288,8 +2463,11 @@
       <c r="J58">
         <v>-43.312399934353898</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K58">
+        <v>11.797598720629253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>28399</v>
       </c>
@@ -2320,8 +2498,11 @@
       <c r="J59">
         <v>-19.251150106201901</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59">
+        <v>10.727504450779065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>28430</v>
       </c>
@@ -2352,8 +2533,11 @@
       <c r="J60">
         <v>6.5711154505180502</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K60">
+        <v>10.267068460966414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28460</v>
       </c>
@@ -2384,8 +2568,11 @@
       <c r="J61">
         <v>7.7511469537252102</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K61">
+        <v>10.31122445282881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>28491</v>
       </c>
@@ -2416,8 +2603,11 @@
       <c r="J62">
         <v>9.1332686941040908</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K62">
+        <v>9.0051661191477592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>28522</v>
       </c>
@@ -2448,8 +2638,11 @@
       <c r="J63">
         <v>7.7036322483469801</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K63">
+        <v>7.5771648315932794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>28550</v>
       </c>
@@ -2480,8 +2673,11 @@
       <c r="J64">
         <v>-1.3638947640378001</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K64">
+        <v>8.0390724286559703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>28581</v>
       </c>
@@ -2512,8 +2708,11 @@
       <c r="J65">
         <v>13.432908103236599</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K65">
+        <v>9.1603193310897382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>28611</v>
       </c>
@@ -2544,8 +2743,11 @@
       <c r="J66">
         <v>4.2911144860327903</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K66">
+        <v>7.4766505890646044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>28642</v>
       </c>
@@ -2576,8 +2778,11 @@
       <c r="J67">
         <v>-8.6550975761519897</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K67">
+        <v>8.0424131589047647</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>28672</v>
       </c>
@@ -2608,8 +2813,11 @@
       <c r="J68">
         <v>-2.31961841505517</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K68">
+        <v>7.8877888424489697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>28703</v>
       </c>
@@ -2640,8 +2848,11 @@
       <c r="J69">
         <v>4.4462805247392101</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K69">
+        <v>8.4276850616719798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>28734</v>
       </c>
@@ -2672,8 +2883,11 @@
       <c r="J70">
         <v>23.301440138277599</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K70">
+        <v>8.1762089693704638</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>28764</v>
       </c>
@@ -2704,8 +2918,11 @@
       <c r="J71">
         <v>5.1858511330175698</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K71">
+        <v>8.3956381180270228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>28795</v>
       </c>
@@ -2736,8 +2953,11 @@
       <c r="J72">
         <v>13.9587141091048</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K72">
+        <v>8.0128385745439346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>28825</v>
       </c>
@@ -2768,8 +2988,11 @@
       <c r="J73">
         <v>15.595030819498801</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K73">
+        <v>9.1592833581436821</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>28856</v>
       </c>
@@ -2800,8 +3023,11 @@
       <c r="J74">
         <v>9.3668380284508395</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K74">
+        <v>6.8613142606703263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>28887</v>
       </c>
@@ -2832,8 +3058,11 @@
       <c r="J75">
         <v>16.6679495142928</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K75">
+        <v>7.7563457921416443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28915</v>
       </c>
@@ -2864,8 +3093,11 @@
       <c r="J76">
         <v>33.261681109760502</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K76">
+        <v>7.6547737063062868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>28946</v>
       </c>
@@ -2896,8 +3128,11 @@
       <c r="J77">
         <v>14.977082002170899</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K77">
+        <v>7.8253330759623623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>28976</v>
       </c>
@@ -2928,8 +3163,11 @@
       <c r="J78">
         <v>30.582568094833999</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K78">
+        <v>8.2171804757358018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>29007</v>
       </c>
@@ -2960,8 +3198,11 @@
       <c r="J79">
         <v>72.603577446091904</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K79">
+        <v>8.5872457755113487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>29037</v>
       </c>
@@ -2992,8 +3233,11 @@
       <c r="J80">
         <v>46.846260764077897</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K80">
+        <v>9.3270908267746222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>29068</v>
       </c>
@@ -3024,8 +3268,11 @@
       <c r="J81">
         <v>112.758035927626</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K81">
+        <v>9.0059354253382935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>29099</v>
       </c>
@@ -3056,8 +3303,11 @@
       <c r="J82">
         <v>68.898200836417104</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K82">
+        <v>8.4942570485272881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>29129</v>
       </c>
@@ -3088,8 +3338,11 @@
       <c r="J83">
         <v>47.375816861097803</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K83">
+        <v>9.0084289957219426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>29160</v>
       </c>
@@ -3120,8 +3373,11 @@
       <c r="J84">
         <v>52.276954927317902</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K84">
+        <v>9.4478687907854919</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>29190</v>
       </c>
@@ -3152,8 +3408,11 @@
       <c r="J85">
         <v>52.872205752341401</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K85">
+        <v>8.9850228892610176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>29221</v>
       </c>
@@ -3184,8 +3443,11 @@
       <c r="J86">
         <v>40.6950318863449</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K86">
+        <v>9.5260136441931422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>29252</v>
       </c>
@@ -3216,8 +3478,11 @@
       <c r="J87">
         <v>67.078869912919401</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K87">
+        <v>10.222045912652959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29281</v>
       </c>
@@ -3248,8 +3513,11 @@
       <c r="J88">
         <v>39.338145414124199</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K88">
+        <v>9.4960810282614716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>29312</v>
       </c>
@@ -3280,8 +3548,11 @@
       <c r="J89">
         <v>42.2258102771655</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K89">
+        <v>5.9454382168985944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>29342</v>
       </c>
@@ -3312,8 +3583,11 @@
       <c r="J90">
         <v>45.422760965135303</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K90">
+        <v>5.3676210867145073</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>29373</v>
       </c>
@@ -3344,8 +3618,11 @@
       <c r="J91">
         <v>41.957610050174601</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K91">
+        <v>4.5012083247613646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>29403</v>
       </c>
@@ -3376,8 +3653,11 @@
       <c r="J92">
         <v>59.903462588727798</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K92">
+        <v>3.6370939317721991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29434</v>
       </c>
@@ -3408,8 +3688,11 @@
       <c r="J93">
         <v>33.2482155350555</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K93">
+        <v>2.9148485630888672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>29465</v>
       </c>
@@ -3440,8 +3723,11 @@
       <c r="J94">
         <v>23.573050250205998</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K94">
+        <v>2.0664592823063686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>29495</v>
       </c>
@@ -3472,8 +3758,11 @@
       <c r="J95">
         <v>26.776779387767601</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K95">
+        <v>2.3179136709823069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>29526</v>
       </c>
@@ -3504,8 +3793,11 @@
       <c r="J96">
         <v>5.75259477089425</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K96">
+        <v>2.605312174327139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>29556</v>
       </c>
@@ -3536,8 +3828,11 @@
       <c r="J97">
         <v>32.221501786522197</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K97">
+        <v>1.1110654036011738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>29587</v>
       </c>
@@ -3568,8 +3863,11 @@
       <c r="J98">
         <v>27.801958016238199</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K98">
+        <v>2.6814045752739162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>29618</v>
       </c>
@@ -3600,8 +3898,11 @@
       <c r="J99">
         <v>46.2955494468561</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K99">
+        <v>2.1998918610004239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>29646</v>
       </c>
@@ -3632,8 +3933,11 @@
       <c r="J100">
         <v>27.7581666079375</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K100">
+        <v>1.3668466907506058</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>29677</v>
       </c>
@@ -3664,8 +3968,11 @@
       <c r="J101">
         <v>25.074709317315499</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K101">
+        <v>1.1252592865990891</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>29707</v>
       </c>
@@ -3696,8 +4003,11 @@
       <c r="J102">
         <v>12.325018075747</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K102">
+        <v>0.47790852349447732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>29738</v>
       </c>
@@ -3728,8 +4038,11 @@
       <c r="J103">
         <v>-55.646461354717502</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K103">
+        <v>0.50848231570904545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>29768</v>
       </c>
@@ -3760,8 +4073,11 @@
       <c r="J104">
         <v>-47.398668652951201</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K104">
+        <v>0.89540763904039977</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>29799</v>
       </c>
@@ -3792,8 +4108,11 @@
       <c r="J105">
         <v>-62.245933958573303</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K105">
+        <v>3.7657480790471709E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>29830</v>
       </c>
@@ -3824,8 +4143,11 @@
       <c r="J106">
         <v>-28.646121441522901</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K106">
+        <v>0.53761147570230605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>29860</v>
       </c>
@@ -3856,8 +4178,11 @@
       <c r="J107">
         <v>-16.294662425355401</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K107">
+        <v>0.11901486979746778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>29891</v>
       </c>
@@ -3888,8 +4213,11 @@
       <c r="J108">
         <v>-64.668205404421002</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K108">
+        <v>-0.77783187806244314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>29921</v>
       </c>
@@ -3920,8 +4248,11 @@
       <c r="J109">
         <v>-66.291045025154204</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K109">
+        <v>-1.8634418027510264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>29952</v>
       </c>
@@ -3952,8 +4283,11 @@
       <c r="J110">
         <v>-64.477406744113395</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K110">
+        <v>-2.6593091566209637</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>29983</v>
       </c>
@@ -3984,8 +4318,11 @@
       <c r="J111">
         <v>-82.514534687247703</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K111">
+        <v>-2.6018226332134304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>30011</v>
       </c>
@@ -4016,8 +4353,11 @@
       <c r="J112">
         <v>-50.040105677750098</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K112">
+        <v>-2.5869551510914448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30042</v>
       </c>
@@ -4048,8 +4388,11 @@
       <c r="J113">
         <v>-54.490512381430698</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K113">
+        <v>-1.5951083741826437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>30072</v>
       </c>
@@ -4080,8 +4423,11 @@
       <c r="J114">
         <v>-69.007296706202496</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K114">
+        <v>-0.84171941190169264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>30103</v>
       </c>
@@ -4112,8 +4458,11 @@
       <c r="J115">
         <v>-91.038619822788405</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K115">
+        <v>-1.091910826400408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>30133</v>
       </c>
@@ -4144,8 +4493,11 @@
       <c r="J116">
         <v>-93.268232656058203</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K116">
+        <v>-1.0055029873583408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>30164</v>
       </c>
@@ -4176,8 +4528,11 @@
       <c r="J117">
         <v>-73.033953708452998</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K117">
+        <v>-1.3856490439821414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>30195</v>
       </c>
@@ -4208,8 +4563,11 @@
       <c r="J118">
         <v>-90.649018992488706</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K118">
+        <v>-1.0553828642400731</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>30225</v>
       </c>
@@ -4240,8 +4598,11 @@
       <c r="J119">
         <v>-91.765745368975303</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K119">
+        <v>-3.0078847544021414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>30256</v>
       </c>
@@ -4272,8 +4633,11 @@
       <c r="J120">
         <v>-65.952412803259506</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K120">
+        <v>-4.1002592686156163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>30286</v>
       </c>
@@ -4304,8 +4668,11 @@
       <c r="J121">
         <v>-86.584685743398495</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K121">
+        <v>-4.49318507549998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>30317</v>
       </c>
@@ -4336,8 +4703,11 @@
       <c r="J122">
         <v>-70.481078433410104</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K122">
+        <v>-3.0098926840061608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>30348</v>
       </c>
@@ -4368,8 +4738,11 @@
       <c r="J123">
         <v>-97.033763730192803</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K123">
+        <v>-4.0754151756123065</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>30376</v>
       </c>
@@ -4400,8 +4773,11 @@
       <c r="J124">
         <v>-79.429118614400096</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K124">
+        <v>-3.00282115141232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>30407</v>
       </c>
@@ -4432,8 +4808,11 @@
       <c r="J125">
         <v>-81.718445670102</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K125">
+        <v>-2.1794530058912756</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>30437</v>
       </c>
@@ -4464,8 +4843,11 @@
       <c r="J126">
         <v>-78.941536366516601</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K126">
+        <v>-1.9276821065687955</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>30468</v>
       </c>
@@ -4496,8 +4878,11 @@
       <c r="J127">
         <v>-32.199771431661098</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K127">
+        <v>-1.752292202240028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>30498</v>
       </c>
@@ -4528,8 +4913,11 @@
       <c r="J128">
         <v>-47.226866337809902</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K128">
+        <v>-2.0984290179289928</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>30529</v>
       </c>
@@ -4560,8 +4948,11 @@
       <c r="J129">
         <v>-27.6981672054558</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K129">
+        <v>-0.56246120053100412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>30560</v>
       </c>
@@ -4592,8 +4983,11 @@
       <c r="J130">
         <v>-50.164756789686898</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K130">
+        <v>0.14397711992199902</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>30590</v>
       </c>
@@ -4624,8 +5018,11 @@
       <c r="J131">
         <v>-61.143478427630498</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K131">
+        <v>0.48562958447996607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>30621</v>
       </c>
@@ -4656,8 +5053,11 @@
       <c r="J132">
         <v>-23.709092489034798</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K132">
+        <v>1.6226861119678802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>30651</v>
       </c>
@@ -4688,8 +5088,11 @@
       <c r="J133">
         <v>-13.1555788221429</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K133">
+        <v>3.1800801423489133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>30682</v>
       </c>
@@ -4720,8 +5123,11 @@
       <c r="J134">
         <v>-27.943173206550501</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K134">
+        <v>4.4968636390264578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>30713</v>
       </c>
@@ -4752,8 +5158,11 @@
       <c r="J135">
         <v>-4.3757498599967803</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K135">
+        <v>4.6088197746119022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>30742</v>
       </c>
@@ -4784,8 +5193,11 @@
       <c r="J136">
         <v>-13.052942049984599</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K136">
+        <v>4.3782295258131398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>30773</v>
       </c>
@@ -4816,8 +5228,11 @@
       <c r="J137">
         <v>-26.589108171743501</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K137">
+        <v>4.8267602872517728</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>30803</v>
       </c>
@@ -4848,8 +5263,11 @@
       <c r="J138">
         <v>-22.834508464962401</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K138">
+        <v>6.5763269643142621</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>30834</v>
       </c>
@@ -4880,8 +5298,11 @@
       <c r="J139">
         <v>0.98913888573744002</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K139">
+        <v>6.5799286102748624</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>30864</v>
       </c>
@@ -4912,8 +5333,11 @@
       <c r="J140">
         <v>2.0486572850907998</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K140">
+        <v>8.1523354444604479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>30895</v>
       </c>
@@ -4944,8 +5368,11 @@
       <c r="J141">
         <v>-1.29616359018101</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K141">
+        <v>9.3685024846558917</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>30926</v>
       </c>
@@ -4976,8 +5403,11 @@
       <c r="J142">
         <v>30.681530003605101</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K142">
+        <v>8.980806653247555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>30956</v>
       </c>
@@ -5008,8 +5438,11 @@
       <c r="J143">
         <v>21.899182716026001</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K143">
+        <v>10.597836778152271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>30987</v>
       </c>
@@ -5040,8 +5473,11 @@
       <c r="J144">
         <v>9.8792762959886797</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K144">
+        <v>10.918610822197309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>31017</v>
       </c>
@@ -5072,8 +5508,11 @@
       <c r="J145">
         <v>-8.4514474222210403</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K145">
+        <v>11.842437208682497</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>31048</v>
       </c>
@@ -5104,8 +5543,11 @@
       <c r="J146">
         <v>0.97868485459455801</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K146">
+        <v>10.878226594125522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>31079</v>
       </c>
@@ -5136,8 +5578,11 @@
       <c r="J147">
         <v>6.7845224149524901</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K147">
+        <v>11.771870926917757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>31107</v>
       </c>
@@ -5168,8 +5613,11 @@
       <c r="J148">
         <v>-10.713249708748</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K148">
+        <v>11.570993564949504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>31138</v>
       </c>
@@ -5200,8 +5648,11 @@
       <c r="J149">
         <v>4.1111912198332803</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K149">
+        <v>10.522065943331199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>31168</v>
       </c>
@@ -5232,8 +5683,11 @@
       <c r="J150">
         <v>-0.91095577963917795</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K150">
+        <v>11.096120296661013</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>31199</v>
       </c>
@@ -5264,8 +5718,11 @@
       <c r="J151">
         <v>-37.274935451271602</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K151">
+        <v>10.402485965622304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>31229</v>
       </c>
@@ -5296,8 +5753,11 @@
       <c r="J152">
         <v>-15.939587671917501</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K152">
+        <v>10.22947517321353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>31260</v>
       </c>
@@ -5328,8 +5788,11 @@
       <c r="J153">
         <v>-33.800459566305598</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K153">
+        <v>9.4301811904433634</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>31291</v>
       </c>
@@ -5360,8 +5823,11 @@
       <c r="J154">
         <v>-21.3327541590957</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K154">
+        <v>8.572373701336744</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>31321</v>
       </c>
@@ -5392,8 +5858,11 @@
       <c r="J155">
         <v>-19.105019082161999</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K155">
+        <v>8.3997263236377648</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>31352</v>
       </c>
@@ -5424,8 +5893,11 @@
       <c r="J156">
         <v>-21.013548214500101</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K156">
+        <v>8.2819376694998823</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>31382</v>
       </c>
@@ -5456,8 +5928,11 @@
       <c r="J157">
         <v>-11.2839753514177</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K157">
+        <v>7.2784296244191751</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>31413</v>
       </c>
@@ -5488,8 +5963,11 @@
       <c r="J158">
         <v>2.5240155999931302</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K158">
+        <v>6.9839533888448955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>31444</v>
       </c>
@@ -5520,8 +5998,11 @@
       <c r="J159">
         <v>-24.979446364633802</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K159">
+        <v>6.1438470616863583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>31472</v>
       </c>
@@ -5552,8 +6033,11 @@
       <c r="J160">
         <v>-32.573851201930999</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K160">
+        <v>6.1497254217435398</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>31503</v>
       </c>
@@ -5584,8 +6068,11 @@
       <c r="J161">
         <v>-43.414276529910502</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K161">
+        <v>6.5915458645654326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>31533</v>
       </c>
@@ -5616,8 +6103,11 @@
       <c r="J162">
         <v>-45.823254817470399</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K162">
+        <v>4.7500362855573144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>31564</v>
       </c>
@@ -5648,8 +6138,11 @@
       <c r="J163">
         <v>-46.285636462903703</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K163">
+        <v>5.8372195011387475</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>31594</v>
       </c>
@@ -5680,8 +6173,11 @@
       <c r="J164">
         <v>-54.918171201870798</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K164">
+        <v>5.253276568448598</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>31625</v>
       </c>
@@ -5712,8 +6208,11 @@
       <c r="J165">
         <v>-52.722835344327699</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K165">
+        <v>3.9935868937666896</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>31656</v>
       </c>
@@ -5744,8 +6243,11 @@
       <c r="J166">
         <v>-47.911421722514099</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K166">
+        <v>4.9710398918142005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>31686</v>
       </c>
@@ -5776,8 +6278,11 @@
       <c r="J167">
         <v>-31.404144474149799</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K167">
+        <v>4.9824098431973312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>31717</v>
       </c>
@@ -5808,8 +6313,11 @@
       <c r="J168">
         <v>-33.8822236782704</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K168">
+        <v>4.7893814122970753</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>31747</v>
       </c>
@@ -5840,8 +6348,11 @@
       <c r="J169">
         <v>-33.852018833499002</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K169">
+        <v>4.8999742666118209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>31778</v>
       </c>
@@ -5872,8 +6383,11 @@
       <c r="J170">
         <v>-24.9438038026979</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K170">
+        <v>3.5210146563522358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>31809</v>
       </c>
@@ -5904,8 +6418,11 @@
       <c r="J171">
         <v>-13.211534950715601</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K171">
+        <v>5.4439679091152584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>31837</v>
       </c>
@@ -5936,8 +6453,11 @@
       <c r="J172">
         <v>-12.6451268426006</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K172">
+        <v>4.6954681041490289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>31868</v>
       </c>
@@ -5968,8 +6488,11 @@
       <c r="J173">
         <v>-2.3833377056981</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K173">
+        <v>5.6089973428344138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>31898</v>
       </c>
@@ -6000,8 +6523,11 @@
       <c r="J174">
         <v>3.6559941324165699</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K174">
+        <v>5.1307570964694378</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>31929</v>
       </c>
@@ -6032,8 +6558,11 @@
       <c r="J175">
         <v>4.3987766485195801</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K175">
+        <v>5.4994356457037838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>31959</v>
       </c>
@@ -6064,8 +6593,11 @@
       <c r="J176">
         <v>15.3415648479066</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K176">
+        <v>5.6373260949176824</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>31990</v>
       </c>
@@ -6096,8 +6628,11 @@
       <c r="J177">
         <v>35.602073670156202</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K177">
+        <v>5.8551468050173412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>32021</v>
       </c>
@@ -6128,8 +6663,11 @@
       <c r="J178">
         <v>25.776577537233301</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K178">
+        <v>6.3899921495101353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>32051</v>
       </c>
@@ -6160,8 +6698,11 @@
       <c r="J179">
         <v>22.750270242480902</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K179">
+        <v>7.3931975280297593</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>32082</v>
       </c>
@@ -6192,8 +6733,11 @@
       <c r="J180">
         <v>27.223075274730199</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K180">
+        <v>7.3517114857989441</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>32112</v>
       </c>
@@ -6224,8 +6768,11 @@
       <c r="J181">
         <v>26.901399794538001</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K181">
+        <v>7.8292735266073805</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>32143</v>
       </c>
@@ -6256,8 +6803,11 @@
       <c r="J182">
         <v>36.648426330084099</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K182">
+        <v>8.0883818773460803</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>32174</v>
       </c>
@@ -6288,8 +6838,11 @@
       <c r="J183">
         <v>61.847866596436802</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K183">
+        <v>8.8441089776007971</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>32203</v>
       </c>
@@ -6320,8 +6873,11 @@
       <c r="J184">
         <v>70.651656229961404</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K184">
+        <v>9.2494703585246043</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>32234</v>
       </c>
@@ -6352,8 +6908,11 @@
       <c r="J185">
         <v>69.223254096576497</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K185">
+        <v>8.8166281703673235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>32264</v>
       </c>
@@ -6384,8 +6943,11 @@
       <c r="J186">
         <v>67.573182495039802</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K186">
+        <v>9.5358846883075898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>32295</v>
       </c>
@@ -6416,8 +6978,11 @@
       <c r="J187">
         <v>60.291155102906004</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K187">
+        <v>9.5762649038833842</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>32325</v>
       </c>
@@ -6448,8 +7013,11 @@
       <c r="J188">
         <v>65.493605547553301</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K188">
+        <v>8.8426955637130504</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>32356</v>
       </c>
@@ -6480,8 +7048,11 @@
       <c r="J189">
         <v>64.963597286086198</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K189">
+        <v>10.147659615268196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>32387</v>
       </c>
@@ -6512,8 +7083,11 @@
       <c r="J190">
         <v>45.397164524941097</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K190">
+        <v>9.7268064938499492</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>32417</v>
       </c>
@@ -6544,8 +7118,11 @@
       <c r="J191">
         <v>42.977690812796197</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K191">
+        <v>9.4882889527095813</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>32448</v>
       </c>
@@ -6576,8 +7153,11 @@
       <c r="J192">
         <v>55.021697432744702</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K192">
+        <v>10.187504823170286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>32478</v>
       </c>
@@ -6608,8 +7188,11 @@
       <c r="J193">
         <v>67.541435861690502</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K193">
+        <v>10.403955931210419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>32509</v>
       </c>
@@ -6640,8 +7223,11 @@
       <c r="J194">
         <v>60.280298559949102</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K194">
+        <v>11.534494186771553</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>32540</v>
       </c>
@@ -6672,8 +7258,11 @@
       <c r="J195">
         <v>50.063381022685597</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K195">
+        <v>8.8697107349864837</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>32568</v>
       </c>
@@ -6704,8 +7293,11 @@
       <c r="J196">
         <v>48.605349214028998</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K196">
+        <v>9.9155817530867694</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>32599</v>
       </c>
@@ -6736,8 +7328,11 @@
       <c r="J197">
         <v>38.178536448195601</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K197">
+        <v>9.9841577238122454</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>32629</v>
       </c>
@@ -6768,8 +7363,11 @@
       <c r="J198">
         <v>36.9669718020942</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K198">
+        <v>8.8092199920022836</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>32660</v>
       </c>
@@ -6800,8 +7398,11 @@
       <c r="J199">
         <v>29.8193813500991</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K199">
+        <v>9.5656804666530775</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>32690</v>
       </c>
@@ -6832,8 +7433,11 @@
       <c r="J200">
         <v>30.7525434124322</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K200">
+        <v>8.7095229932778579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>32721</v>
       </c>
@@ -6864,8 +7468,11 @@
       <c r="J201">
         <v>17.256993558751301</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K201">
+        <v>8.7534835093013044</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>32752</v>
       </c>
@@ -6896,8 +7503,11 @@
       <c r="J202">
         <v>22.306429631119599</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K202">
+        <v>7.9938486178151607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>32782</v>
       </c>
@@ -6928,8 +7538,11 @@
       <c r="J203">
         <v>23.987704869045999</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K203">
+        <v>6.6507125907599516</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>32813</v>
       </c>
@@ -6960,8 +7573,11 @@
       <c r="J204">
         <v>26.4689784493243</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K204">
+        <v>6.556919506789427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>32843</v>
       </c>
@@ -6992,8 +7608,11 @@
       <c r="J205">
         <v>15.6884113595084</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K205">
+        <v>7.0386653358838771</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>32874</v>
       </c>
@@ -7024,8 +7643,11 @@
       <c r="J206">
         <v>9.6052293646708993</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K206">
+        <v>5.8039470265822501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>32905</v>
       </c>
@@ -7056,8 +7678,11 @@
       <c r="J207">
         <v>-5.0401612557526798</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K207">
+        <v>5.7725726102947306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>32933</v>
       </c>
@@ -7088,8 +7713,11 @@
       <c r="J208">
         <v>-10.7056610994015</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K208">
+        <v>5.9497337120169504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>32964</v>
       </c>
@@ -7120,8 +7748,11 @@
       <c r="J209">
         <v>-13.027152954438201</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K209">
+        <v>4.7556974912277497</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>32994</v>
       </c>
@@ -7152,8 +7783,11 @@
       <c r="J210">
         <v>-15.4499950838891</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K210">
+        <v>5.7802187230846016</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>33025</v>
       </c>
@@ -7184,8 +7818,11 @@
       <c r="J211">
         <v>-13.9919143529071</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K211">
+        <v>5.5721463556328104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>33055</v>
       </c>
@@ -7216,8 +7853,11 @@
       <c r="J212">
         <v>-17.582068963422799</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K212">
+        <v>5.7486039409252498</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>33086</v>
       </c>
@@ -7248,8 +7888,11 @@
       <c r="J213">
         <v>-10.6622616835746</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K213">
+        <v>5.5042348071580705</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>33117</v>
       </c>
@@ -7280,8 +7923,11 @@
       <c r="J214">
         <v>-17.808134503992498</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K214">
+        <v>5.2978361922693011</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>33147</v>
       </c>
@@ -7312,8 +7958,11 @@
       <c r="J215">
         <v>-16.684173472242701</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K215">
+        <v>5.2166800327583474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>33178</v>
       </c>
@@ -7344,8 +7993,11 @@
       <c r="J216">
         <v>-21.528889826082899</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K216">
+        <v>4.082776187050797</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>33208</v>
       </c>
@@ -7376,8 +8028,11 @@
       <c r="J217">
         <v>-15.6802795763218</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K217">
+        <v>2.9874366754984862</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>33239</v>
       </c>
@@ -7408,8 +8063,11 @@
       <c r="J218">
         <v>-21.5043763665022</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K218">
+        <v>3.2021400114036851</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>33270</v>
       </c>
@@ -7440,8 +8098,11 @@
       <c r="J219">
         <v>-6.22332344258849</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K219">
+        <v>2.9274169235296199</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>33298</v>
       </c>
@@ -7472,8 +8133,11 @@
       <c r="J220">
         <v>-3.5773466434101802</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K220">
+        <v>1.7160137735119747</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>33329</v>
       </c>
@@ -7504,8 +8168,11 @@
       <c r="J221">
         <v>-10.522927057664401</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K221">
+        <v>1.8057307360865593</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>33359</v>
       </c>
@@ -7536,8 +8203,11 @@
       <c r="J222">
         <v>-11.206194128019201</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K222">
+        <v>2.9993954941637071</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>33390</v>
       </c>
@@ -7568,8 +8238,11 @@
       <c r="J223">
         <v>9.4331297084002692</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K223">
+        <v>2.1084748351393046</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>33420</v>
       </c>
@@ -7600,8 +8273,11 @@
       <c r="J224">
         <v>3.0267481761616599</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K224">
+        <v>2.8564363566633801</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>33451</v>
       </c>
@@ -7632,8 +8308,11 @@
       <c r="J225">
         <v>-3.5440437116114301</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K225">
+        <v>2.3863731513923767</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>33482</v>
       </c>
@@ -7664,8 +8343,11 @@
       <c r="J226">
         <v>-1.9160497739075999</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K226">
+        <v>2.7401794755377296</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>33512</v>
       </c>
@@ -7696,8 +8378,11 @@
       <c r="J227">
         <v>-4.3059411212342402</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K227">
+        <v>3.1603948144646097</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>33543</v>
       </c>
@@ -7728,8 +8413,11 @@
       <c r="J228">
         <v>-11.2159791379559</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K228">
+        <v>2.7409743892602592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>33573</v>
       </c>
@@ -7760,8 +8448,11 @@
       <c r="J229">
         <v>-13.07092024316</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K229">
+        <v>1.1696137947264447</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>33604</v>
       </c>
@@ -7792,8 +8483,11 @@
       <c r="J230">
         <v>-17.872006921830302</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K230">
+        <v>1.9934441148924975</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>33635</v>
       </c>
@@ -7824,8 +8518,11 @@
       <c r="J231">
         <v>-27.847791200785601</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K231">
+        <v>2.2777983207134298</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>33664</v>
       </c>
@@ -7856,8 +8553,11 @@
       <c r="J232">
         <v>-34.5732830973812</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K232">
+        <v>1.7653769671794635</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>33695</v>
       </c>
@@ -7888,8 +8588,11 @@
       <c r="J233">
         <v>-28.532559742717599</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K233">
+        <v>3.0010747271550144</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>33725</v>
       </c>
@@ -7920,8 +8623,11 @@
       <c r="J234">
         <v>-11.9502491097236</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K234">
+        <v>1.5889605653778744</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>33756</v>
       </c>
@@ -7952,8 +8658,11 @@
       <c r="J235">
         <v>-11.1879079532143</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K235">
+        <v>1.3725909136404084</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>33786</v>
       </c>
@@ -7984,8 +8693,11 @@
       <c r="J236">
         <v>-10.696050344341399</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K236">
+        <v>1.8549417655179923</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>33817</v>
       </c>
@@ -8016,8 +8728,11 @@
       <c r="J237">
         <v>-19.559422020221501</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K237">
+        <v>0.65286332847523454</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>33848</v>
       </c>
@@ -8048,8 +8763,11 @@
       <c r="J238">
         <v>-18.3300530848928</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K238">
+        <v>0.9902163848759642</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>33878</v>
       </c>
@@ -8080,8 +8798,11 @@
       <c r="J239">
         <v>-21.780753346344301</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K239">
+        <v>1.2270494386382893</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>33909</v>
       </c>
@@ -8112,8 +8833,11 @@
       <c r="J240">
         <v>-13.931362897096699</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K240">
+        <v>1.6471313788959492</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>33939</v>
       </c>
@@ -8144,8 +8868,11 @@
       <c r="J241">
         <v>-11.4882347414972</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K241">
+        <v>1.2799896738926009</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>33970</v>
       </c>
@@ -8176,8 +8903,11 @@
       <c r="J242">
         <v>-16.675761731250599</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K242">
+        <v>1.8493690761411585</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>34001</v>
       </c>
@@ -8208,8 +8938,11 @@
       <c r="J243">
         <v>-24.3358130231079</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K243">
+        <v>3.2610226268958513</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>34029</v>
       </c>
@@ -8240,8 +8973,11 @@
       <c r="J244">
         <v>-24.076517758081199</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K244">
+        <v>3.5722006187103261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>34060</v>
       </c>
@@ -8272,8 +9008,11 @@
       <c r="J245">
         <v>-12.566780603238699</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K245">
+        <v>3.1315853005073677</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>34090</v>
       </c>
@@ -8304,8 +9043,11 @@
       <c r="J246">
         <v>-10.361341901169199</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K246">
+        <v>2.968310814702761</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>34121</v>
       </c>
@@ -8336,8 +9078,11 @@
       <c r="J247">
         <v>-15.892330836079999</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K247">
+        <v>2.4593426964437413</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>34151</v>
       </c>
@@ -8368,8 +9113,11 @@
       <c r="J248">
         <v>-18.878477218596299</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K248">
+        <v>2.3439558591006175</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>34182</v>
       </c>
@@ -8400,8 +9148,11 @@
       <c r="J249">
         <v>-13.023475300063099</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K249">
+        <v>2.2693296655459108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>34213</v>
       </c>
@@ -8432,8 +9183,11 @@
       <c r="J250">
         <v>-13.9961194810202</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K250">
+        <v>2.3444732574412797</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>34243</v>
       </c>
@@ -8464,8 +9218,11 @@
       <c r="J251">
         <v>-21.856903441859899</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K251">
+        <v>2.0673730551815765</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>34274</v>
       </c>
@@ -8496,8 +9253,11 @@
       <c r="J252">
         <v>-28.046917604885898</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K252">
+        <v>2.331743297048547</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>34304</v>
       </c>
@@ -8528,8 +9288,11 @@
       <c r="J253">
         <v>-27.793823072678801</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K253">
+        <v>3.7159329116404933</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>34335</v>
       </c>
@@ -8560,8 +9323,11 @@
       <c r="J254">
         <v>-25.424333409051901</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K254">
+        <v>3.2497448114075382</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>34366</v>
       </c>
@@ -8592,8 +9358,11 @@
       <c r="J255">
         <v>-18.075495905503601</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K255">
+        <v>2.8889359366880285</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>34394</v>
       </c>
@@ -8624,8 +9393,11 @@
       <c r="J256">
         <v>-11.481306161544101</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K256">
+        <v>3.7615419815400628</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34425</v>
       </c>
@@ -8656,8 +9428,11 @@
       <c r="J257">
         <v>4.5797183806313599</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K257">
+        <v>4.2008340970980953</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34455</v>
       </c>
@@ -8688,8 +9463,11 @@
       <c r="J258">
         <v>9.84679550327421</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K258">
+        <v>5.0142809479217476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34486</v>
       </c>
@@ -8720,8 +9498,11 @@
       <c r="J259">
         <v>8.5669870665028292</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K259">
+        <v>5.621911818958381</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>34516</v>
       </c>
@@ -8752,8 +9533,11 @@
       <c r="J260">
         <v>21.9860378719425</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K260">
+        <v>5.3866206446315914</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>34547</v>
       </c>
@@ -8784,8 +9568,11 @@
       <c r="J261">
         <v>27.1352771884894</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K261">
+        <v>7.0798885256156154</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>34578</v>
       </c>
@@ -8816,8 +9603,11 @@
       <c r="J262">
         <v>32.133427758637403</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K262">
+        <v>6.9062820616142062</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>34608</v>
       </c>
@@ -8848,8 +9638,11 @@
       <c r="J263">
         <v>47.882298394017297</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K263">
+        <v>7.4765017415024317</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>34639</v>
       </c>
@@ -8880,8 +9673,11 @@
       <c r="J264">
         <v>38.004649154892498</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K264">
+        <v>8.4042389501905177</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>34669</v>
       </c>
@@ -8912,8 +9708,11 @@
       <c r="J265">
         <v>32.986852374236101</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K265">
+        <v>10.098409632013272</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>34700</v>
       </c>
@@ -8944,8 +9743,11 @@
       <c r="J266">
         <v>38.673161953835503</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K266">
+        <v>8.9792243532821772</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>34731</v>
       </c>
@@ -8976,8 +9778,11 @@
       <c r="J267">
         <v>35.085970817393502</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K267">
+        <v>8.4700247693304505</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>34759</v>
       </c>
@@ -9008,8 +9813,11 @@
       <c r="J268">
         <v>36.731560135062502</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K268">
+        <v>8.4946744898232964</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>34790</v>
       </c>
@@ -9040,8 +9848,11 @@
       <c r="J269">
         <v>35.254467443995502</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K269">
+        <v>8.6610322317353052</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>34820</v>
       </c>
@@ -9072,8 +9883,11 @@
       <c r="J270">
         <v>28.783841230247099</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K270">
+        <v>7.9806830067506098</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>34851</v>
       </c>
@@ -9104,8 +9918,11 @@
       <c r="J271">
         <v>20.622829932557998</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K271">
+        <v>8.8276574339872127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>34881</v>
       </c>
@@ -9136,8 +9953,11 @@
       <c r="J272">
         <v>30.322497477651101</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K272">
+        <v>8.7009100764287837</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>34912</v>
       </c>
@@ -9168,8 +9988,11 @@
       <c r="J273">
         <v>35.4949252081935</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K273">
+        <v>9.4486836261526719</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>34943</v>
       </c>
@@ -9200,8 +10023,11 @@
       <c r="J274">
         <v>29.5368947349892</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K274">
+        <v>9.0902882395299116</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>34973</v>
       </c>
@@ -9232,8 +10058,11 @@
       <c r="J275">
         <v>17.1477476482798</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K275">
+        <v>9.0839518143117743</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>35004</v>
       </c>
@@ -9264,8 +10093,11 @@
       <c r="J276">
         <v>19.094580396010599</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K276">
+        <v>9.3011867874699874</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>35034</v>
       </c>
@@ -9296,8 +10128,11 @@
       <c r="J277">
         <v>22.324927270916898</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K277">
+        <v>9.4977979555276875</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>35065</v>
       </c>
@@ -9328,8 +10163,11 @@
       <c r="J278">
         <v>17.920382185557401</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K278">
+        <v>9.3438866497233448</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>35096</v>
       </c>
@@ -9360,8 +10198,11 @@
       <c r="J279">
         <v>16.263810457099002</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K279">
+        <v>8.9854090611490847</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>35125</v>
       </c>
@@ -9392,8 +10233,11 @@
       <c r="J280">
         <v>13.178833724145701</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K280">
+        <v>8.7019645222150075</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>35156</v>
       </c>
@@ -9424,8 +10268,11 @@
       <c r="J281">
         <v>5.6334110118257303</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K281">
+        <v>8.4580951720351436</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>35186</v>
       </c>
@@ -9456,8 +10303,11 @@
       <c r="J282">
         <v>-10.0454867535384</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K282">
+        <v>8.6036495349631537</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>35217</v>
       </c>
@@ -9488,8 +10338,11 @@
       <c r="J283">
         <v>-11.414031521788701</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K283">
+        <v>8.0029589493311732</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>35247</v>
       </c>
@@ -9520,8 +10373,11 @@
       <c r="J284">
         <v>-28.297937426449799</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K284">
+        <v>8.0825695319985584</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>35278</v>
       </c>
@@ -9552,8 +10408,11 @@
       <c r="J285">
         <v>-36.225989352536601</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K285">
+        <v>7.4605722151816849</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>35309</v>
       </c>
@@ -9584,8 +10443,11 @@
       <c r="J286">
         <v>-45.449648130776097</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K286">
+        <v>7.5962513654518489</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>35339</v>
       </c>
@@ -9616,8 +10478,11 @@
       <c r="J287">
         <v>-52.569418187879997</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K287">
+        <v>7.1415129657644911</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>35370</v>
       </c>
@@ -9648,8 +10513,11 @@
       <c r="J288">
         <v>-30.909025443267598</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K288">
+        <v>6.7293575988842917</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>35400</v>
       </c>
@@ -9680,8 +10548,11 @@
       <c r="J289">
         <v>-35.120607500043498</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K289">
+        <v>6.1447823218900339</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>35431</v>
       </c>
@@ -9712,8 +10583,11 @@
       <c r="J290">
         <v>-38.009295807175498</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K290">
+        <v>6.8160454704383255</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>35462</v>
       </c>
@@ -9744,8 +10618,11 @@
       <c r="J291">
         <v>-38.081937963316498</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K291">
+        <v>7.1766735007198577</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>35490</v>
       </c>
@@ -9776,8 +10653,11 @@
       <c r="J292">
         <v>-45.595907375960998</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K292">
+        <v>8.0446222482449912</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>35521</v>
       </c>
@@ -9808,8 +10688,11 @@
       <c r="J293">
         <v>-54.418349173588197</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K293">
+        <v>8.1308236721038725</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>35551</v>
       </c>
@@ -9840,8 +10723,11 @@
       <c r="J294">
         <v>-61.443223778246796</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K294">
+        <v>8.7448497223688264</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>35582</v>
       </c>
@@ -9872,8 +10758,11 @@
       <c r="J295">
         <v>-50.448472745099998</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K295">
+        <v>9.144232941630662</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>35612</v>
       </c>
@@ -9904,8 +10793,11 @@
       <c r="J296">
         <v>-43.489071281863097</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K296">
+        <v>9.6189210169193871</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>35643</v>
       </c>
@@ -9936,8 +10828,11 @@
       <c r="J297">
         <v>-52.940668797627097</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K297">
+        <v>9.4319020402045339</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>35674</v>
       </c>
@@ -9968,8 +10863,11 @@
       <c r="J298">
         <v>-48.945077017034599</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K298">
+        <v>9.9207458398850008</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>35704</v>
       </c>
@@ -10000,8 +10898,11 @@
       <c r="J299">
         <v>-31.023420972831701</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K299">
+        <v>10.596501894262076</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>35735</v>
       </c>
@@ -10032,8 +10933,11 @@
       <c r="J300">
         <v>-34.131711998256101</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K300">
+        <v>9.932426440879965</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>35765</v>
       </c>
@@ -10064,8 +10968,11 @@
       <c r="J301">
         <v>-32.271606774970699</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K301">
+        <v>9.0893711811583557</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>35796</v>
       </c>
@@ -10096,8 +11003,11 @@
       <c r="J302">
         <v>-33.933465489977102</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K302">
+        <v>9.0703625360268916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>35827</v>
       </c>
@@ -10128,8 +11038,11 @@
       <c r="J303">
         <v>-42.022716571285798</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K303">
+        <v>9.8824129016025495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>35855</v>
       </c>
@@ -10160,8 +11073,11 @@
       <c r="J304">
         <v>-31.209455573263199</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K304">
+        <v>9.0732382410084256</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>35886</v>
       </c>
@@ -10192,8 +11108,11 @@
       <c r="J305">
         <v>-42.864196213687499</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K305">
+        <v>8.5971738937765281</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>35916</v>
       </c>
@@ -10224,8 +11143,11 @@
       <c r="J306">
         <v>-40.453769818657697</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K306">
+        <v>8.177534651066992</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>35947</v>
       </c>
@@ -10256,8 +11178,11 @@
       <c r="J307">
         <v>-38.724330917437001</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K307">
+        <v>7.8306274940221101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>35977</v>
       </c>
@@ -10288,8 +11213,11 @@
       <c r="J308">
         <v>-32.445696579529503</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K308">
+        <v>7.4149400924391102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>36008</v>
       </c>
@@ -10320,8 +11248,11 @@
       <c r="J309">
         <v>-34.676097095234098</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K309">
+        <v>7.3416331595776114</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>36039</v>
       </c>
@@ -10352,8 +11283,11 @@
       <c r="J310">
         <v>-20.3441911357585</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K310">
+        <v>7.0767526209878611</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>36069</v>
       </c>
@@ -10384,8 +11318,11 @@
       <c r="J311">
         <v>-17.498906344171601</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K311">
+        <v>7.087105265918126</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>36100</v>
       </c>
@@ -10416,8 +11353,11 @@
       <c r="J312">
         <v>-44.606889646554201</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K312">
+        <v>6.7958980652637138</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>36130</v>
       </c>
@@ -10448,8 +11388,11 @@
       <c r="J313">
         <v>-59.316423417330398</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K313">
+        <v>6.1410930256963638</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>36161</v>
       </c>
@@ -10480,8 +11423,11 @@
       <c r="J314">
         <v>-63.126172464592997</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K314">
+        <v>6.7657870366460884</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>36192</v>
       </c>
@@ -10512,8 +11458,11 @@
       <c r="J315">
         <v>-57.439769632637997</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K315">
+        <v>5.6303287937840309</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>36220</v>
       </c>
@@ -10544,8 +11493,11 @@
       <c r="J316">
         <v>-44.985012829396901</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K316">
+        <v>5.6268224876830004</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>36251</v>
       </c>
@@ -10576,8 +11528,11 @@
       <c r="J317">
         <v>-43.833269259277401</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K317">
+        <v>5.1511545497555176</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>36281</v>
       </c>
@@ -10608,8 +11563,11 @@
       <c r="J318">
         <v>-22.234440261396202</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K318">
+        <v>5.8549668914429844</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>36312</v>
       </c>
@@ -10640,8 +11598,11 @@
       <c r="J319">
         <v>-28.7809652774529</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K319">
+        <v>5.0225374426465237</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>36342</v>
       </c>
@@ -10672,8 +11633,11 @@
       <c r="J320">
         <v>-35.469043468082397</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K320">
+        <v>5.3527837690889442</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36373</v>
       </c>
@@ -10704,8 +11668,11 @@
       <c r="J321">
         <v>-25.143045539439299</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K321">
+        <v>5.3427418829563749</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>36404</v>
       </c>
@@ -10736,8 +11703,11 @@
       <c r="J322">
         <v>-16.449165894287798</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K322">
+        <v>5.487675030874243</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36434</v>
       </c>
@@ -10768,8 +11738,11 @@
       <c r="J323">
         <v>-2.8448995298236701</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K323">
+        <v>5.3915310766782909</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>36465</v>
       </c>
@@ -10800,8 +11773,11 @@
       <c r="J324">
         <v>3.51256531339983</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K324">
+        <v>6.4817371010061606</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>36495</v>
       </c>
@@ -10832,8 +11808,11 @@
       <c r="J325">
         <v>4.1381755456298697</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K325">
+        <v>7.4729035147128116</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>36526</v>
       </c>
@@ -10864,8 +11843,11 @@
       <c r="J326">
         <v>12.642994422463699</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K326">
+        <v>7.4406348399380136</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>36557</v>
       </c>
@@ -10896,8 +11878,11 @@
       <c r="J327">
         <v>29.798177884294802</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K327">
+        <v>7.0218779259433859</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>36586</v>
       </c>
@@ -10928,8 +11913,11 @@
       <c r="J328">
         <v>37.481672781255298</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K328">
+        <v>7.8344225881132274</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>36617</v>
       </c>
@@ -10960,8 +11948,11 @@
       <c r="J329">
         <v>47.507481955360703</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K329">
+        <v>8.895209608839366</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>36647</v>
       </c>
@@ -10992,8 +11983,11 @@
       <c r="J330">
         <v>43.868114644682699</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K330">
+        <v>9.1547623349284777</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>36678</v>
       </c>
@@ -11024,8 +12018,11 @@
       <c r="J331">
         <v>51.544129381965497</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K331">
+        <v>9.4562409431047172</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>36708</v>
       </c>
@@ -11056,8 +12053,11 @@
       <c r="J332">
         <v>59.914832341576798</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K332">
+        <v>9.9213014388612351</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>36739</v>
       </c>
@@ -11088,8 +12088,11 @@
       <c r="J333">
         <v>66.290971877127006</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K333">
+        <v>10.063676464293565</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>36770</v>
       </c>
@@ -11120,8 +12123,11 @@
       <c r="J334">
         <v>61.493053720097699</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K334">
+        <v>9.6060120528762241</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>36800</v>
       </c>
@@ -11152,8 +12158,11 @@
       <c r="J335">
         <v>50.738123237289699</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K335">
+        <v>9.6415014672105031</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>36831</v>
       </c>
@@ -11184,8 +12193,11 @@
       <c r="J336">
         <v>52.610527506869197</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K336">
+        <v>9.8422209319555805</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>36861</v>
       </c>
@@ -11216,8 +12228,11 @@
       <c r="J337">
         <v>57.917449782841501</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K337">
+        <v>10.318585471165932</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>36892</v>
       </c>
@@ -11248,8 +12263,11 @@
       <c r="J338">
         <v>60.387536071347299</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K338">
+        <v>8.0164708271834115</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>36923</v>
       </c>
@@ -11280,8 +12298,11 @@
       <c r="J339">
         <v>50.483417155644297</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K339">
+        <v>9.4216436497782183</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>36951</v>
       </c>
@@ -11312,8 +12333,11 @@
       <c r="J340">
         <v>37.3268077812847</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K340">
+        <v>7.6853805906044954</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36982</v>
       </c>
@@ -11344,8 +12368,11 @@
       <c r="J341">
         <v>38.266107067491497</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K341">
+        <v>7.1834564018332685</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>37012</v>
       </c>
@@ -11376,8 +12403,11 @@
       <c r="J342">
         <v>24.3430066911415</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K342">
+        <v>6.2382590847745973</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>37043</v>
       </c>
@@ -11408,8 +12438,11 @@
       <c r="J343">
         <v>26.297520372708899</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K343">
+        <v>5.9326373763382207</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>37073</v>
       </c>
@@ -11440,8 +12473,11 @@
       <c r="J344">
         <v>16.1025316089707</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K344">
+        <v>4.542593652992764</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>37104</v>
       </c>
@@ -11472,8 +12508,11 @@
       <c r="J345">
         <v>-12.481028919091701</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K345">
+        <v>4.6587480905903931</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>37135</v>
       </c>
@@ -11504,8 +12543,11 @@
       <c r="J346">
         <v>-25.1970737988878</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K346">
+        <v>3.3271967517481471</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>37165</v>
       </c>
@@ -11536,8 +12578,11 @@
       <c r="J347">
         <v>-45.4576894385457</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K347">
+        <v>2.4215380908840416</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>37196</v>
       </c>
@@ -11568,8 +12613,11 @@
       <c r="J348">
         <v>-49.747103774465998</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K348">
+        <v>1.21188710801772</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>37226</v>
       </c>
@@ -11600,8 +12648,11 @@
       <c r="J349">
         <v>-48.332666456869198</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K349">
+        <v>0.3620244976979734</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>37257</v>
       </c>
@@ -11632,8 +12683,11 @@
       <c r="J350">
         <v>-43.479086174537201</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K350">
+        <v>1.6617335564472455</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>37288</v>
       </c>
@@ -11664,8 +12718,11 @@
       <c r="J351">
         <v>-41.870147734498502</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K351">
+        <v>1.0267940508761058</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>37316</v>
       </c>
@@ -11696,8 +12753,11 @@
       <c r="J352">
         <v>-46.304048689010699</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K352">
+        <v>1.4947266702159823</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>37347</v>
       </c>
@@ -11728,8 +12788,11 @@
       <c r="J353">
         <v>-48.445259962719597</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K353">
+        <v>1.2081615907522973</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>37377</v>
       </c>
@@ -11760,8 +12823,11 @@
       <c r="J354">
         <v>-48.648389849190004</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K354">
+        <v>1.0842377524872973</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>37408</v>
       </c>
@@ -11792,8 +12858,11 @@
       <c r="J355">
         <v>-50.990828784901602</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K355">
+        <v>1.1797249672459316</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>37438</v>
       </c>
@@ -11824,8 +12893,11 @@
       <c r="J356">
         <v>-53.432776555721603</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K356">
+        <v>1.2221321853700715</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>37469</v>
       </c>
@@ -11856,8 +12928,11 @@
       <c r="J357">
         <v>-53.6722578118599</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K357">
+        <v>1.0813535217404251</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>37500</v>
       </c>
@@ -11888,8 +12963,11 @@
       <c r="J358">
         <v>-41.049157432158196</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K358">
+        <v>1.6004347959705001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>37530</v>
       </c>
@@ -11920,8 +12998,11 @@
       <c r="J359">
         <v>-28.0294272225063</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K359">
+        <v>1.3786460452986375</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>37561</v>
       </c>
@@ -11952,8 +13033,11 @@
       <c r="J360">
         <v>-20.599281807877698</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K360">
+        <v>1.3656994724846641</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>37591</v>
       </c>
@@ -11984,8 +13068,11 @@
       <c r="J361">
         <v>-0.58611204295013797</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K361">
+        <v>0.66797024937852711</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>37622</v>
       </c>
@@ -12016,8 +13103,11 @@
       <c r="J362">
         <v>3.9427236759231699</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K362">
+        <v>3.1338686344207076</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>37653</v>
       </c>
@@ -12048,8 +13138,11 @@
       <c r="J363">
         <v>8.1293662924905696</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K363">
+        <v>2.2805536487990707</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>37681</v>
       </c>
@@ -12080,8 +13173,11 @@
       <c r="J364">
         <v>16.519166244731299</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K364">
+        <v>3.2672615875960673</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>37712</v>
       </c>
@@ -12112,8 +13208,11 @@
       <c r="J365">
         <v>32.188728159415497</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K365">
+        <v>3.4142752110067818</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>37742</v>
       </c>
@@ -12144,8 +13243,11 @@
       <c r="J366">
         <v>40.106262401964003</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K366">
+        <v>3.2767038088367713</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>37773</v>
       </c>
@@ -12176,8 +13278,11 @@
       <c r="J367">
         <v>40.870163915605097</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K367">
+        <v>3.9814742343294256</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>37803</v>
       </c>
@@ -12208,8 +13313,11 @@
       <c r="J368">
         <v>54.990980673816203</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K368">
+        <v>5.4170128731381055</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>37834</v>
       </c>
@@ -12240,8 +13348,11 @@
       <c r="J369">
         <v>80.783477526122695</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K369">
+        <v>4.740541150344427</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>37865</v>
       </c>
@@ -12272,8 +13383,11 @@
       <c r="J370">
         <v>91.911400099327906</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K370">
+        <v>6.3693499434436944</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>37895</v>
       </c>
@@ -12304,8 +13418,11 @@
       <c r="J371">
         <v>149.33870102709901</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K371">
+        <v>7.6034840582098013</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>37926</v>
       </c>
@@ -12336,8 +13453,11 @@
       <c r="J372">
         <v>156.20159093046601</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K372">
+        <v>8.2029382150101355</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>37956</v>
       </c>
@@ -12368,8 +13488,11 @@
       <c r="J373">
         <v>162.242234971248</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K373">
+        <v>8.8591517156435202</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>37987</v>
       </c>
@@ -12400,8 +13523,11 @@
       <c r="J374">
         <v>167.82038724226601</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K374">
+        <v>7.6428518710716844</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>38018</v>
       </c>
@@ -12432,8 +13558,11 @@
       <c r="J375">
         <v>168.91961371072901</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K375">
+        <v>9.2097560257218447</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>38047</v>
       </c>
@@ -12464,8 +13593,11 @@
       <c r="J376">
         <v>152.55398040748199</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K376">
+        <v>8.2167559774649703</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>38078</v>
       </c>
@@ -12496,8 +13628,11 @@
       <c r="J377">
         <v>138.27789705156201</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K377">
+        <v>8.1678276183153002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>38108</v>
       </c>
@@ -12528,8 +13663,11 @@
       <c r="J378">
         <v>120.00250953211901</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K378">
+        <v>8.1223134971251625</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>38139</v>
       </c>
@@ -12560,8 +13698,11 @@
       <c r="J379">
         <v>101.97302659276799</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K379">
+        <v>7.8504603519517673</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>38169</v>
       </c>
@@ -12592,8 +13733,11 @@
       <c r="J380">
         <v>129.14845832746499</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K380">
+        <v>8.1323620749452061</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>38200</v>
       </c>
@@ -12624,8 +13768,11 @@
       <c r="J381">
         <v>137.88419656253501</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K381">
+        <v>7.841963551490494</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>38231</v>
       </c>
@@ -12656,8 +13803,11 @@
       <c r="J382">
         <v>120.477281950574</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K382">
+        <v>7.9480765560626878</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>38261</v>
       </c>
@@ -12688,8 +13838,11 @@
       <c r="J383">
         <v>115.0249598705</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K383">
+        <v>8.2880715132311593</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>38292</v>
       </c>
@@ -12720,8 +13873,11 @@
       <c r="J384">
         <v>123.616878368493</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K384">
+        <v>8.0849701342485787</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>38322</v>
       </c>
@@ -12752,8 +13908,11 @@
       <c r="J385">
         <v>114.47517821053</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K385">
+        <v>8.7793604073218603</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>38353</v>
       </c>
@@ -12784,8 +13943,11 @@
       <c r="J386">
         <v>92.937553753654399</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K386">
+        <v>8.4407626058551273</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>38384</v>
       </c>
@@ -12816,8 +13978,11 @@
       <c r="J387">
         <v>94.936470034496907</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K387">
+        <v>8.5256001938655004</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>38412</v>
       </c>
@@ -12848,8 +14013,11 @@
       <c r="J388">
         <v>87.897732073093295</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K388">
+        <v>8.70886409487224</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>38443</v>
       </c>
@@ -12880,8 +14048,11 @@
       <c r="J389">
         <v>73.110849180069707</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K389">
+        <v>9.7305902849504946</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>38473</v>
       </c>
@@ -12912,8 +14083,11 @@
       <c r="J390">
         <v>44.008878735612797</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K390">
+        <v>9.512304366992737</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>38504</v>
       </c>
@@ -12944,8 +14118,11 @@
       <c r="J391">
         <v>19.500996109005701</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K391">
+        <v>9.7187819425541875</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>38534</v>
       </c>
@@ -12976,8 +14153,11 @@
       <c r="J392">
         <v>-4.6407217638374298</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K392">
+        <v>9.0703940596526991</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>38565</v>
       </c>
@@ -13008,8 +14188,11 @@
       <c r="J393">
         <v>-9.6308213125377407</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K393">
+        <v>9.5192372255069699</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>38596</v>
       </c>
@@ -13040,8 +14223,11 @@
       <c r="J394">
         <v>5.8175478698760097</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K394">
+        <v>8.6588630848586945</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>38626</v>
       </c>
@@ -13072,8 +14258,11 @@
       <c r="J395">
         <v>-34.909959069500403</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K395">
+        <v>8.3296866306814081</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>38657</v>
       </c>
@@ -13104,8 +14293,11 @@
       <c r="J396">
         <v>-44.5387893100702</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K396">
+        <v>9.0593105030461629</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>38687</v>
       </c>
@@ -13136,8 +14328,11 @@
       <c r="J397">
         <v>-63.821654036795003</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K397">
+        <v>8.9858669668566336</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>38718</v>
       </c>
@@ -13168,8 +14363,11 @@
       <c r="J398">
         <v>-90.561995445965294</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K398">
+        <v>9.0220407554399458</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>38749</v>
       </c>
@@ -13200,8 +14398,11 @@
       <c r="J399">
         <v>-86.792130574089001</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K399">
+        <v>8.5921638414011454</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>38777</v>
       </c>
@@ -13232,8 +14433,11 @@
       <c r="J400">
         <v>-74.544763504644905</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K400">
+        <v>8.9298115394477691</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>38808</v>
       </c>
@@ -13264,8 +14468,11 @@
       <c r="J401">
         <v>-66.777919820453604</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K401">
+        <v>8.6878627445631764</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>38838</v>
       </c>
@@ -13296,8 +14503,11 @@
       <c r="J402">
         <v>-45.426652745634698</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K402">
+        <v>9.029324769021116</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>38869</v>
       </c>
@@ -13328,8 +14538,11 @@
       <c r="J403">
         <v>-13.125497231277601</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K403">
+        <v>9.4325014765584569</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>38899</v>
       </c>
@@ -13360,8 +14573,11 @@
       <c r="J404">
         <v>-28.466117932589</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K404">
+        <v>9.0717383374838505</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>38930</v>
       </c>
@@ -13392,8 +14608,11 @@
       <c r="J405">
         <v>-19.727151652160501</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K405">
+        <v>9.4108141106586345</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>38961</v>
       </c>
@@ -13424,8 +14643,11 @@
       <c r="J406">
         <v>-9.1099299671812499</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K406">
+        <v>9.3893558804448389</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>38991</v>
       </c>
@@ -13456,8 +14678,11 @@
       <c r="J407">
         <v>-17.668209419153602</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K407">
+        <v>9.1967150964658231</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>39022</v>
       </c>
@@ -13488,8 +14713,11 @@
       <c r="J408">
         <v>-28.918833172171102</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K408">
+        <v>10.234336246323494</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>39052</v>
       </c>
@@ -13520,8 +14748,11 @@
       <c r="J409">
         <v>-29.902428324618899</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K409">
+        <v>10.520896263559564</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>39083</v>
       </c>
@@ -13552,8 +14783,11 @@
       <c r="J410">
         <v>-6.8920254763474196</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K410">
+        <v>10.328430498764021</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>39114</v>
       </c>
@@ -13584,8 +14818,11 @@
       <c r="J411">
         <v>-8.9776143975268194</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K411">
+        <v>10.480225126494929</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>39142</v>
       </c>
@@ -13616,8 +14853,11 @@
       <c r="J412">
         <v>2.9710831460171101</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K412">
+        <v>10.896699270562294</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>39173</v>
       </c>
@@ -13648,8 +14888,11 @@
       <c r="J413">
         <v>17.747250098847399</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K413">
+        <v>10.304831517965852</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>39203</v>
       </c>
@@ -13680,8 +14923,11 @@
       <c r="J414">
         <v>49.142432491626899</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K414">
+        <v>11.594039180847744</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>39234</v>
       </c>
@@ -13712,8 +14958,11 @@
       <c r="J415">
         <v>67.532695865213896</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K415">
+        <v>11.075413943987087</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>39264</v>
       </c>
@@ -13744,8 +14993,11 @@
       <c r="J416">
         <v>102.214785859586</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K416">
+        <v>11.433165645644749</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>39295</v>
       </c>
@@ -13776,8 +15028,11 @@
       <c r="J417">
         <v>112.46391237804799</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K417">
+        <v>11.542774459907037</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>39326</v>
       </c>
@@ -13808,8 +15063,11 @@
       <c r="J418">
         <v>106.999020851567</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K418">
+        <v>11.522613300402668</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>39356</v>
       </c>
@@ -13840,8 +15098,11 @@
       <c r="J419">
         <v>114.383462211948</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K419">
+        <v>11.602444537389545</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>39387</v>
       </c>
@@ -13872,8 +15133,11 @@
       <c r="J420">
         <v>122.309148074162</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K420">
+        <v>10.957389099013881</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>39417</v>
       </c>
@@ -13904,8 +15168,11 @@
       <c r="J421">
         <v>126.718574053551</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K421">
+        <v>10.510018413278658</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>39448</v>
       </c>
@@ -13936,8 +15203,11 @@
       <c r="J422">
         <v>109.114071714248</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K422">
+        <v>12.110224813312755</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>39479</v>
       </c>
@@ -13968,8 +15238,11 @@
       <c r="J423">
         <v>96.975878685263694</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K423">
+        <v>10.69936952007555</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>39508</v>
       </c>
@@ -14000,8 +15273,11 @@
       <c r="J424">
         <v>106.55966330815301</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K424">
+        <v>10.071276877477317</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>39539</v>
       </c>
@@ -14032,8 +15308,11 @@
       <c r="J425">
         <v>114.840577890915</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K425">
+        <v>10.091324159704982</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>39569</v>
       </c>
@@ -14064,8 +15343,11 @@
       <c r="J426">
         <v>142.401211161167</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K426">
+        <v>8.5325819608494271</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>39600</v>
       </c>
@@ -14096,8 +15378,11 @@
       <c r="J427">
         <v>125.19839274950201</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K427">
+        <v>8.4687768097970775</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>39630</v>
       </c>
@@ -14128,8 +15413,11 @@
       <c r="J428">
         <v>99.854819110220205</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K428">
+        <v>7.475695093499894</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>39661</v>
       </c>
@@ -14160,8 +15448,11 @@
       <c r="J429">
         <v>62.656255333410002</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K429">
+        <v>6.1798954374487494</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>39692</v>
       </c>
@@ -14192,8 +15483,11 @@
       <c r="J430">
         <v>13.212148175530199</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K430">
+        <v>4.7801378354626536</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>39722</v>
       </c>
@@ -14224,8 +15518,11 @@
       <c r="J431">
         <v>-87.3324777951903</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K431">
+        <v>2.9669536629201616</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>39753</v>
       </c>
@@ -14256,8 +15553,11 @@
       <c r="J432">
         <v>-168.61971977391599</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K432">
+        <v>-0.95908338986828312</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>39783</v>
       </c>
@@ -14288,8 +15588,11 @@
       <c r="J433">
         <v>-180.40123989139201</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K433">
+        <v>-4.8643543166226095</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>39814</v>
       </c>
@@ -14320,8 +15623,11 @@
       <c r="J434">
         <v>-163.678624765709</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K434">
+        <v>-8.3158239276400536</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>39845</v>
       </c>
@@ -14352,8 +15658,11 @@
       <c r="J435">
         <v>-92.521837428926204</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K435">
+        <v>-7.6852015017942108</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>39873</v>
       </c>
@@ -14384,8 +15693,11 @@
       <c r="J436">
         <v>-99.6440729271729</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K436">
+        <v>-8.8320345475794397</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>39904</v>
       </c>
@@ -14416,8 +15728,11 @@
       <c r="J437">
         <v>-127.604995253596</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K437">
+        <v>-8.7813223398251807</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>39934</v>
       </c>
@@ -14448,8 +15763,11 @@
       <c r="J438">
         <v>-95.440664515144306</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K438">
+        <v>-9.1272263971912935</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>39965</v>
       </c>
@@ -14480,8 +15798,11 @@
       <c r="J439">
         <v>-44.793905759480303</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K439">
+        <v>-8.3038494434390486</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>39995</v>
       </c>
@@ -14512,8 +15833,11 @@
       <c r="J440">
         <v>-70.4076906398913</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K440">
+        <v>-7.8697961021634342</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>40026</v>
       </c>
@@ -14544,8 +15868,11 @@
       <c r="J441">
         <v>-102.261843094735</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K441">
+        <v>-7.4784888058316596</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>40057</v>
       </c>
@@ -14576,8 +15903,11 @@
       <c r="J442">
         <v>-132.819568464871</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K442">
+        <v>-6.4187747254651413</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>40087</v>
       </c>
@@ -14608,8 +15938,11 @@
       <c r="J443">
         <v>-136.86541034610801</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K443">
+        <v>-6.590654440683636</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>40118</v>
       </c>
@@ -14640,8 +15973,11 @@
       <c r="J444">
         <v>-101.40102268534601</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K444">
+        <v>-6.078008316313003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>40148</v>
       </c>
@@ -14672,8 +16008,11 @@
       <c r="J445">
         <v>-104.218585801785</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K445">
+        <v>-5.702460757290396</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>40179</v>
       </c>
@@ -14704,8 +16043,11 @@
       <c r="J446">
         <v>-84.140633229680205</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K446">
+        <v>-5.3352612238648476</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>40210</v>
       </c>
@@ -14736,8 +16078,11 @@
       <c r="J447">
         <v>-96.413642647417603</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K447">
+        <v>-4.9215677306805219</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>40238</v>
       </c>
@@ -14768,8 +16113,11 @@
       <c r="J448">
         <v>-94.008130063258605</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K448">
+        <v>-3.1533160755651579</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>40269</v>
       </c>
@@ -14800,8 +16148,11 @@
       <c r="J449">
         <v>-101.784265771302</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K449">
+        <v>-3.1283206149717557</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>40299</v>
       </c>
@@ -14832,8 +16183,11 @@
       <c r="J450">
         <v>-104.824240898591</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K450">
+        <v>-1.4006005380130659</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>40330</v>
       </c>
@@ -14864,8 +16218,11 @@
       <c r="J451">
         <v>-119.806070842387</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K451">
+        <v>-1.8586219052459683</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>40360</v>
       </c>
@@ -14896,8 +16253,11 @@
       <c r="J452">
         <v>-153.66351316734099</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K452">
+        <v>-0.72483017523927629</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>40391</v>
       </c>
@@ -14928,8 +16288,11 @@
       <c r="J453">
         <v>-110.945335236422</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K453">
+        <v>0.55356058664176544</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>40422</v>
       </c>
@@ -14960,8 +16323,11 @@
       <c r="J454">
         <v>-60.125812568590803</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K454">
+        <v>1.8026222025301877</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>40452</v>
       </c>
@@ -14992,8 +16358,11 @@
       <c r="J455">
         <v>38.946565910668802</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K455">
+        <v>3.8371608909991437</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>40483</v>
       </c>
@@ -15024,8 +16393,11 @@
       <c r="J456">
         <v>101.21154996456001</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K456">
+        <v>7.1530122204223971</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>40513</v>
       </c>
@@ -15056,8 +16428,11 @@
       <c r="J457">
         <v>96.353207265123004</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K457">
+        <v>11.585972113035666</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>40544</v>
       </c>
@@ -15088,8 +16463,11 @@
       <c r="J458">
         <v>39.508007744628898</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K458">
+        <v>15.833421474185855</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>40575</v>
       </c>
@@ -15120,8 +16498,11 @@
       <c r="J459">
         <v>-47.241905762481998</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K459">
+        <v>14.82552684637011</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>40603</v>
       </c>
@@ -15152,8 +16533,11 @@
       <c r="J460">
         <v>-31.970660227587501</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K460">
+        <v>15.030953114698605</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>40634</v>
       </c>
@@ -15184,8 +16568,11 @@
       <c r="J461">
         <v>-26.386660416089398</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K461">
+        <v>14.34395032623928</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>40664</v>
       </c>
@@ -15216,8 +16603,11 @@
       <c r="J462">
         <v>-68.406348525849495</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K462">
+        <v>14.693197237842753</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>40695</v>
       </c>
@@ -15248,8 +16638,11 @@
       <c r="J463">
         <v>-102.65648159804999</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K463">
+        <v>13.980906592327926</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>40725</v>
       </c>
@@ -15280,8 +16673,11 @@
       <c r="J464">
         <v>-94.945076099661406</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K464">
+        <v>13.404102860080854</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>40756</v>
       </c>
@@ -15312,8 +16708,11 @@
       <c r="J465">
         <v>-70.873825600376506</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K465">
+        <v>12.799787144349011</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>40787</v>
       </c>
@@ -15344,8 +16743,11 @@
       <c r="J466">
         <v>-29.3565309987668</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K466">
+        <v>11.614685626252992</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>40817</v>
       </c>
@@ -15376,8 +16778,11 @@
       <c r="J467">
         <v>-32.750128194046297</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K467">
+        <v>11.143822785671887</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>40848</v>
       </c>
@@ -15408,8 +16813,11 @@
       <c r="J468">
         <v>-80.882700317808997</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K468">
+        <v>9.8716216955282334</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>40878</v>
       </c>
@@ -15440,8 +16848,11 @@
       <c r="J469">
         <v>-69.236218373309299</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K469">
+        <v>9.5149774736833024</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>40909</v>
       </c>
@@ -15472,8 +16883,11 @@
       <c r="J470">
         <v>-116.109437949628</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K470">
+        <v>8.446726552321536</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>40940</v>
       </c>
@@ -15504,8 +16918,11 @@
       <c r="J471">
         <v>-138.75507876752499</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K471">
+        <v>8.7879833989846929</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>40969</v>
       </c>
@@ -15536,8 +16953,11 @@
       <c r="J472">
         <v>-136.867705757246</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K472">
+        <v>6.8347815376405379</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>41000</v>
       </c>
@@ -15568,8 +16988,11 @@
       <c r="J473">
         <v>-114.534373276309</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K473">
+        <v>5.6802537850294925</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>41030</v>
       </c>
@@ -15600,8 +17023,11 @@
       <c r="J474">
         <v>-129.973365057747</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K474">
+        <v>5.4331974073504057</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>41061</v>
       </c>
@@ -15632,8 +17058,11 @@
       <c r="J475">
         <v>-124.297362101616</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K475">
+        <v>5.2287161617543347</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>41091</v>
       </c>
@@ -15664,8 +17093,11 @@
       <c r="J476">
         <v>-64.129042248578799</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K476">
+        <v>4.8711639239497799</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>41122</v>
       </c>
@@ -15696,8 +17128,11 @@
       <c r="J477">
         <v>-121.579282009187</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K477">
+        <v>4.1979764488952469</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>41153</v>
       </c>
@@ -15728,8 +17163,11 @@
       <c r="J478">
         <v>-140.38121274487801</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K478">
+        <v>3.6206722381751888</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>41183</v>
       </c>
@@ -15760,8 +17198,11 @@
       <c r="J479">
         <v>-109.54575017267599</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K479">
+        <v>3.6497061311375205</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>41214</v>
       </c>
@@ -15792,8 +17233,11 @@
       <c r="J480">
         <v>-86.953030448161698</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K480">
+        <v>2.9395645426628789</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>41244</v>
       </c>
@@ -15824,8 +17268,11 @@
       <c r="J481">
         <v>-91.195422844478202</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K481">
+        <v>2.0904346924183415</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>41275</v>
       </c>
@@ -15856,8 +17303,11 @@
       <c r="J482">
         <v>-64.441367630893396</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K482">
+        <v>1.1138484408302816</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>41306</v>
       </c>
@@ -15888,8 +17338,11 @@
       <c r="J483">
         <v>-50.9434598494122</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K483">
+        <v>1.262390088078746</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>41334</v>
       </c>
@@ -15920,8 +17373,11 @@
       <c r="J484">
         <v>-57.3432809786703</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K484">
+        <v>1.8214978107760089</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>41365</v>
       </c>
@@ -15952,8 +17408,11 @@
       <c r="J485">
         <v>-46.305067640221701</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K485">
+        <v>2.7043427354184928</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>41395</v>
       </c>
@@ -15984,8 +17443,11 @@
       <c r="J486">
         <v>-49.3814640131666</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K486">
+        <v>1.8592453385992371</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>41426</v>
       </c>
@@ -16016,8 +17478,11 @@
       <c r="J487">
         <v>-45.468819561125301</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K487">
+        <v>1.1712063247471178</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>41456</v>
       </c>
@@ -16048,8 +17513,11 @@
       <c r="J488">
         <v>-22.817303905719701</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K488">
+        <v>1.4361077031997525</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>41487</v>
       </c>
@@ -16080,8 +17548,11 @@
       <c r="J489">
         <v>-27.4671395995741</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K489">
+        <v>1.6850303856557503</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>41518</v>
       </c>
@@ -16112,8 +17583,11 @@
       <c r="J490">
         <v>-12.107972959257699</v>
       </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K490">
+        <v>2.0590242457614067</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>41548</v>
       </c>
@@ -16144,8 +17618,11 @@
       <c r="J491">
         <v>-12.584300974083501</v>
       </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K491">
+        <v>1.8945970884178678</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>41579</v>
       </c>
@@ -16176,8 +17653,11 @@
       <c r="J492">
         <v>-19.331905113670398</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K492">
+        <v>2.715642571312344</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>41609</v>
       </c>
@@ -16208,8 +17688,11 @@
       <c r="J493">
         <v>12.0667788096726</v>
       </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K493">
+        <v>2.3538493670540106</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>41640</v>
       </c>
@@ -16240,8 +17723,11 @@
       <c r="J494">
         <v>31.5865984363362</v>
       </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K494">
+        <v>2.4504902152715431</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>41671</v>
       </c>
@@ -16272,8 +17758,11 @@
       <c r="J495">
         <v>45.282034808984399</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K495">
+        <v>2.8101428467002734</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>41699</v>
       </c>
@@ -16304,8 +17793,11 @@
       <c r="J496">
         <v>51.611018556131199</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K496">
+        <v>3.1583215361569046</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>41730</v>
       </c>
@@ -16336,8 +17828,11 @@
       <c r="J497">
         <v>-0.72202157980383297</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K497">
+        <v>4.2450125580204485</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>41760</v>
       </c>
@@ -16368,8 +17863,11 @@
       <c r="J498">
         <v>-14.008415643797401</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K498">
+        <v>3.4148528927290727</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>41791</v>
       </c>
@@ -16400,8 +17898,11 @@
       <c r="J499">
         <v>-6.51744269424732</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K499">
+        <v>4.0011114486356973</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>41821</v>
       </c>
@@ -16432,8 +17933,11 @@
       <c r="J500">
         <v>-32.179544282763104</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K500">
+        <v>4.0780671520986971</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>41852</v>
       </c>
@@ -16464,8 +17968,11 @@
       <c r="J501">
         <v>17.6207566130504</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K501">
+        <v>3.403951598845822</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>41883</v>
       </c>
@@ -16496,8 +18003,11 @@
       <c r="J502">
         <v>43.493183019698897</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K502">
+        <v>4.749772953921763</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>41913</v>
       </c>
@@ -16528,8 +18038,11 @@
       <c r="J503">
         <v>12.014437875291399</v>
       </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K503">
+        <v>3.5665945477866785</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>41944</v>
       </c>
@@ -16560,8 +18073,11 @@
       <c r="J504">
         <v>23.771410736352699</v>
       </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K504">
+        <v>4.4263474014597932</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>41974</v>
       </c>
@@ -16592,8 +18108,11 @@
       <c r="J505">
         <v>3.9510662597183299</v>
       </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K505">
+        <v>4.3346683192045816</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>42005</v>
       </c>
@@ -16624,8 +18143,11 @@
       <c r="J506">
         <v>-7.42578940991541</v>
       </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K506">
+        <v>4.4878411202124084</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>42036</v>
       </c>
@@ -16656,8 +18178,11 @@
       <c r="J507">
         <v>-33.284245297954797</v>
       </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K507">
+        <v>4.2343976713135589</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>42064</v>
       </c>
@@ -16688,8 +18213,11 @@
       <c r="J508">
         <v>-43.514469243244903</v>
       </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K508">
+        <v>3.9285089219168867</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>42095</v>
       </c>
@@ -16720,8 +18248,11 @@
       <c r="J509">
         <v>-40.934104160275602</v>
       </c>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K509">
+        <v>3.4901529702681842</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>42125</v>
       </c>
@@ -16752,8 +18283,11 @@
       <c r="J510">
         <v>-37.652409823190901</v>
       </c>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K510">
+        <v>3.1654690228055529</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>42156</v>
       </c>
@@ -16784,8 +18318,11 @@
       <c r="J511">
         <v>-31.870658495116501</v>
       </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K511">
+        <v>4.0664093192776818</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>42186</v>
       </c>
@@ -16816,8 +18353,11 @@
       <c r="J512">
         <v>-16.271302900874598</v>
       </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K512">
+        <v>3.2873678679465002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>42217</v>
       </c>
@@ -16848,8 +18388,11 @@
       <c r="J513">
         <v>-4.0168413429898697</v>
       </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K513">
+        <v>3.1575969043079795</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>42248</v>
       </c>
@@ -16880,8 +18423,11 @@
       <c r="J514">
         <v>-65.377972380591501</v>
       </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K514">
+        <v>2.7490995144033832</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>42278</v>
       </c>
@@ -16912,8 +18458,11 @@
       <c r="J515">
         <v>-88.226366333751699</v>
       </c>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K515">
+        <v>3.2269788762415033</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>42309</v>
       </c>
@@ -16944,8 +18493,11 @@
       <c r="J516">
         <v>-100.165354303992</v>
       </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K516">
+        <v>2.3753200766074087</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>42339</v>
       </c>
@@ -16976,8 +18528,11 @@
       <c r="J517">
         <v>-144.71188137948599</v>
       </c>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K517">
+        <v>2.2653056455721412</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>42370</v>
       </c>
@@ -17008,8 +18563,11 @@
       <c r="J518">
         <v>-134.920854121383</v>
       </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K518">
+        <v>2.473678030264125</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>42401</v>
       </c>
@@ -17040,8 +18598,11 @@
       <c r="J519">
         <v>-132.06125000223699</v>
       </c>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K519">
+        <v>1.6402538472755168</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>42430</v>
       </c>
@@ -17072,8 +18633,11 @@
       <c r="J520">
         <v>-136.240551073484</v>
       </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K520">
+        <v>1.9929794856192871</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>42461</v>
       </c>
@@ -17104,8 +18668,11 @@
       <c r="J521">
         <v>-55.280873955804402</v>
       </c>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K521">
+        <v>1.7904727373360743</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>42491</v>
       </c>
@@ -17136,8 +18703,11 @@
       <c r="J522">
         <v>-48.041022828173901</v>
       </c>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K522">
+        <v>1.9742121510170705</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>42522</v>
       </c>
@@ -17168,8 +18738,11 @@
       <c r="J523">
         <v>-41.731351382430702</v>
       </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K523">
+        <v>2.4775391490998686</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>42552</v>
       </c>
@@ -17200,8 +18773,11 @@
       <c r="J524">
         <v>-12.8192259227769</v>
       </c>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K524">
+        <v>1.804838272041593</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>42583</v>
       </c>
@@ -17232,8 +18808,11 @@
       <c r="J525">
         <v>-34.427596228632403</v>
       </c>
-    </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K525">
+        <v>3.0726971041882507</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>42614</v>
       </c>
@@ -17264,8 +18843,11 @@
       <c r="J526">
         <v>-31.967940915668599</v>
       </c>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K526">
+        <v>1.98505860193643</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>42644</v>
       </c>
@@ -17296,8 +18878,11 @@
       <c r="J527">
         <v>-25.4810780200289</v>
       </c>
-    </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K527">
+        <v>3.3516735203197641</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>42675</v>
       </c>
@@ -17328,8 +18913,11 @@
       <c r="J528">
         <v>-23.847277691267202</v>
       </c>
-    </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K528">
+        <v>2.6977108350675394</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>42705</v>
       </c>
@@ -17360,8 +18948,11 @@
       <c r="J529">
         <v>11.5883065393905</v>
       </c>
-    </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K529">
+        <v>2.4438575864246559</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>42736</v>
       </c>
@@ -17392,8 +18983,11 @@
       <c r="J530">
         <v>18.547002207281999</v>
       </c>
-    </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K530">
+        <v>2.6489579194823136</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>42767</v>
       </c>
@@ -17424,8 +19018,11 @@
       <c r="J531">
         <v>30.530169804015301</v>
       </c>
-    </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K531">
+        <v>3.2925570099254742</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>42795</v>
       </c>
@@ -17456,8 +19053,11 @@
       <c r="J532">
         <v>65.161212709204406</v>
       </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K532">
+        <v>3.8584517323881755</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>42826</v>
       </c>
@@ -17488,8 +19088,11 @@
       <c r="J533">
         <v>69.270567745433397</v>
       </c>
-    </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K533">
+        <v>4.1168922568688231</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>42856</v>
       </c>
@@ -17520,8 +19123,11 @@
       <c r="J534">
         <v>45.966796365603699</v>
       </c>
-    </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K534">
+        <v>4.5485221720419418</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>42887</v>
       </c>
@@ -17552,8 +19158,11 @@
       <c r="J535">
         <v>18.084583482541401</v>
       </c>
-    </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K535">
+        <v>4.0540531748727631</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>42917</v>
       </c>
@@ -17584,8 +19193,11 @@
       <c r="J536">
         <v>-9.9595997251685606</v>
       </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K536">
+        <v>4.1538932841706355</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>42948</v>
       </c>
@@ -17616,8 +19228,11 @@
       <c r="J537">
         <v>3.8988407954798601</v>
       </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K537">
+        <v>4.4672274057559207</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>42979</v>
       </c>
@@ -17648,8 +19263,11 @@
       <c r="J538">
         <v>39.119330540705498</v>
       </c>
-    </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K538">
+        <v>4.7823039719239659</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>43009</v>
       </c>
@@ -17680,8 +19298,11 @@
       <c r="J539">
         <v>59.040627337684001</v>
       </c>
-    </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K539">
+        <v>4.5244958971554183</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>43040</v>
       </c>
@@ -17712,8 +19333,11 @@
       <c r="J540">
         <v>87.662263365576095</v>
       </c>
-    </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K540">
+        <v>5.8279382217602347</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>43070</v>
       </c>
@@ -17744,8 +19368,11 @@
       <c r="J541">
         <v>109.562369419848</v>
       </c>
-    </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K541">
+        <v>6.2143090249939519</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>43101</v>
       </c>
@@ -17776,8 +19403,11 @@
       <c r="J542">
         <v>112.165630034301</v>
       </c>
-    </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K542">
+        <v>5.5194520616827845</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>43132</v>
       </c>
@@ -17808,8 +19438,11 @@
       <c r="J543">
         <v>124.90118140558199</v>
       </c>
-    </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K543">
+        <v>6.1307592256556518</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>43160</v>
       </c>
@@ -17840,8 +19473,11 @@
       <c r="J544">
         <v>105.53473221856601</v>
       </c>
-    </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K544">
+        <v>5.562936382152543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>43191</v>
       </c>
@@ -17872,8 +19508,11 @@
       <c r="J545">
         <v>57.397952025234602</v>
       </c>
-    </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K545">
+        <v>5.914332824453254</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>43221</v>
       </c>
@@ -17904,8 +19543,11 @@
       <c r="J546">
         <v>68.993591383795007</v>
       </c>
-    </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K546">
+        <v>5.7728202817005467</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>43252</v>
       </c>
@@ -17936,24 +19578,55 @@
       <c r="J547">
         <v>75.493267706276995</v>
       </c>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K547">
+        <v>4.9333958189818645</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I548" s="2"/>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K548">
+        <v>5.7034515737493052</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I549" s="2"/>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K549">
+        <v>5.8825295038291188</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I550" s="2"/>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K550">
+        <v>5.8413345626281057</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I551" s="2"/>
-    </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K551">
+        <v>5.6829933715681022</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I552" s="2"/>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K552">
+        <v>5.3047281785733844</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I553" s="2"/>
+      <c r="K553">
+        <v>5.2511174738572208</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K554">
+        <v>4.3645078901772081</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K555">
+        <v>3.9349312768325717</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VariableHam.xlsx
+++ b/VariableHam.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\Skole\8. semester\Projekt\Oil-Price-Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABC37A-D548-427C-8F52-9E1799D4C8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85904B-0741-4049-AEAF-74C4FA88800A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5250" yWindow="2445" windowWidth="21600" windowHeight="11400" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BEDCC-FC3C-4C4F-8566-63C0BD59BBDB}">
-  <dimension ref="A1:K555"/>
+  <dimension ref="A1:K553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="R463" sqref="R463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19584,49 +19584,21 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I548" s="2"/>
-      <c r="K548">
-        <v>5.7034515737493052</v>
-      </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I549" s="2"/>
-      <c r="K549">
-        <v>5.8825295038291188</v>
-      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I550" s="2"/>
-      <c r="K550">
-        <v>5.8413345626281057</v>
-      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I551" s="2"/>
-      <c r="K551">
-        <v>5.6829933715681022</v>
-      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I552" s="2"/>
-      <c r="K552">
-        <v>5.3047281785733844</v>
-      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I553" s="2"/>
-      <c r="K553">
-        <v>5.2511174738572208</v>
-      </c>
-    </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K554">
-        <v>4.3645078901772081</v>
-      </c>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K555">
-        <v>3.9349312768325717</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
